--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NC.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>HIT $50</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>$10,000 Back Scratch</t>
@@ -62,15 +62,15 @@
     <t>5X the Cash</t>
   </si>
   <si>
+    <t>5X The Cash</t>
+  </si>
+  <si>
+    <t>Lucky 7's</t>
+  </si>
+  <si>
     <t>$10,000 Taxes Paid</t>
   </si>
   <si>
-    <t>5X The Cash</t>
-  </si>
-  <si>
-    <t>Lucky 7's</t>
-  </si>
-  <si>
     <t>Cash on the Spot</t>
   </si>
   <si>
@@ -89,15 +89,6 @@
     <t>Winner Winner Chicken Dinner</t>
   </si>
   <si>
-    <t>Summer Cash</t>
-  </si>
-  <si>
-    <t>2019-02-06</t>
-  </si>
-  <si>
-    <t>$10,000 Diamond Dazzler</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
@@ -116,18 +107,18 @@
     <t>10X the Cash</t>
   </si>
   <si>
+    <t>Lady Luck Doubler</t>
+  </si>
+  <si>
+    <t>Cash Bam Boom</t>
+  </si>
+  <si>
+    <t>Quick Cash</t>
+  </si>
+  <si>
     <t>Junior Big Ol' Bucks</t>
   </si>
   <si>
-    <t>Lady Luck Doubler</t>
-  </si>
-  <si>
-    <t>Cash Bam Boom</t>
-  </si>
-  <si>
-    <t>Quick Cash</t>
-  </si>
-  <si>
     <t>10X The Cash</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>Neon 7's</t>
   </si>
   <si>
-    <t>Sapphire 7s</t>
-  </si>
-  <si>
     <t>Did I Win?</t>
   </si>
   <si>
@@ -155,12 +143,12 @@
     <t>Holiday Cheer</t>
   </si>
   <si>
+    <t>Treasure Hunt</t>
+  </si>
+  <si>
     <t>Money Ball Bingo</t>
   </si>
   <si>
-    <t>Treasure Hunt</t>
-  </si>
-  <si>
     <t>15X Crossword</t>
   </si>
   <si>
@@ -179,18 +167,18 @@
     <t>Cash Vault</t>
   </si>
   <si>
+    <t>Fantastic 5's</t>
+  </si>
+  <si>
+    <t>$200,000 Pay Day</t>
+  </si>
+  <si>
+    <t>HIT $500</t>
+  </si>
+  <si>
     <t>Win It All</t>
   </si>
   <si>
-    <t>Fantastic 5's</t>
-  </si>
-  <si>
-    <t>$200,000 Pay Day</t>
-  </si>
-  <si>
-    <t>HIT $500</t>
-  </si>
-  <si>
     <t>Spicy Hot Crossword</t>
   </si>
   <si>
@@ -203,12 +191,12 @@
     <t>MONOPOLY™ FRENZY!</t>
   </si>
   <si>
+    <t>$200,000 Back Scratch</t>
+  </si>
+  <si>
     <t>Mega Bucks</t>
   </si>
   <si>
-    <t>$200,000 Back Scratch</t>
-  </si>
-  <si>
     <t>20X The Cash</t>
   </si>
   <si>
@@ -230,9 +218,6 @@
     <t>Holiday Cash</t>
   </si>
   <si>
-    <t>Carolina Cash</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -260,18 +245,15 @@
     <t>Crown Jewels</t>
   </si>
   <si>
+    <t>50X the Cash</t>
+  </si>
+  <si>
     <t>$50 or $100</t>
   </si>
   <si>
-    <t>50X the Cash</t>
-  </si>
-  <si>
     <t>$1,000,000 Taxes Paid</t>
   </si>
   <si>
-    <t>Carolina Millions</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -290,16 +272,10 @@
     <t>$4,000,000 Diamond Dazzler</t>
   </si>
   <si>
+    <t>100X the Cash</t>
+  </si>
+  <si>
     <t>$150 Million Cash Explosion</t>
-  </si>
-  <si>
-    <t>100X the Cash</t>
-  </si>
-  <si>
-    <t>Millionaire Bucks</t>
-  </si>
-  <si>
-    <t>$200 Million Blowout</t>
   </si>
   <si>
     <t>$30.00 Games</t>
@@ -647,7 +623,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,7 +665,7 @@
         <v>618</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -702,14 +678,14 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>2019</v>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -723,13 +699,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>627</v>
+        <v>582</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -743,13 +719,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -763,13 +739,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -783,13 +759,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -803,13 +779,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>651</v>
+        <v>591</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -823,13 +799,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -843,13 +819,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -863,13 +839,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -882,14 +858,14 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
+      <c r="C12">
+        <v>2019</v>
       </c>
       <c r="D12">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1000,19 +976,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1020,19 +996,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1040,16 +1016,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
       <c r="D20">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1060,16 +1036,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1080,16 +1056,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1100,16 +1076,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1120,16 +1096,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>652</v>
+        <v>614</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1140,16 +1116,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1160,16 +1136,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1180,16 +1156,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1200,16 +1176,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1220,13 +1196,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>592</v>
+        <v>642</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1240,16 +1216,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1260,16 +1236,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1280,19 +1256,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1300,16 +1276,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1320,16 +1296,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
       </c>
       <c r="D34">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1340,16 +1316,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
       <c r="D35">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1360,16 +1336,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1380,16 +1356,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1400,16 +1376,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1420,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1440,16 +1416,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1460,19 +1436,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1480,16 +1456,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1500,16 +1476,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1520,16 +1496,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
       </c>
       <c r="D44">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1540,16 +1516,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
       </c>
       <c r="D45">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1560,16 +1536,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
       </c>
       <c r="D46">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1580,16 +1556,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
       </c>
       <c r="D47">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1600,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
       </c>
       <c r="D48">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1620,13 +1596,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>58</v>
       </c>
       <c r="D49">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1640,16 +1616,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
       </c>
       <c r="D50">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1660,16 +1636,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
       </c>
       <c r="D51">
-        <v>654</v>
+        <v>593</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1680,16 +1656,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>61</v>
       </c>
       <c r="D52">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1700,16 +1676,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
         <v>62</v>
       </c>
       <c r="D53">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1720,16 +1696,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
       </c>
       <c r="D54">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1740,16 +1716,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="C55">
+        <v>777</v>
       </c>
       <c r="D55">
-        <v>593</v>
+        <v>706</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1760,16 +1736,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1780,16 +1756,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1800,16 +1776,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1820,16 +1796,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59">
-        <v>777</v>
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
       </c>
       <c r="D59">
-        <v>706</v>
+        <v>581</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1840,16 +1816,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1860,16 +1836,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D61">
-        <v>626</v>
+        <v>562</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1880,16 +1856,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D62">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1900,19 +1876,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1920,16 +1896,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
       </c>
       <c r="D64">
-        <v>581</v>
+        <v>631</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1940,16 +1916,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
       </c>
       <c r="D65">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1960,16 +1936,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
         <v>75</v>
       </c>
       <c r="D66">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1980,13 +1956,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>76</v>
       </c>
       <c r="D67">
-        <v>602</v>
+        <v>655</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -2000,16 +1976,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>77</v>
       </c>
       <c r="D68">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>142315</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2020,16 +1996,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>9224</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2040,16 +2016,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70">
-        <v>607</v>
+        <v>547</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2060,16 +2036,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>80</v>
       </c>
       <c r="D71">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2080,16 +2056,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>81</v>
       </c>
       <c r="D72">
-        <v>650</v>
+        <v>519</v>
       </c>
       <c r="E72">
-        <v>146744</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2100,16 +2076,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
         <v>82</v>
       </c>
       <c r="D73">
-        <v>655</v>
+        <v>551</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2120,16 +2096,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D74">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="E74">
-        <v>9226</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2140,13 +2116,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D75">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2160,19 +2136,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D76">
-        <v>539</v>
+        <v>659</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2180,16 +2156,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
       </c>
       <c r="D77">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2200,16 +2176,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D78">
-        <v>519</v>
+        <v>587</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2220,178 +2196,18 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D79">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80">
-        <v>594</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81">
-        <v>572</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82">
-        <v>635</v>
-      </c>
-      <c r="E82">
-        <v>3</v>
-      </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83">
-        <v>659</v>
-      </c>
-      <c r="E83">
-        <v>4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84">
-        <v>482</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" t="s">
-        <v>94</v>
-      </c>
-      <c r="D85">
-        <v>413</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" t="s">
-        <v>96</v>
-      </c>
-      <c r="D86">
-        <v>587</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87">
-        <v>538</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NC.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>HIT $50</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>$10,000 Back Scratch</t>
@@ -53,36 +53,39 @@
     <t>7-11-21</t>
   </si>
   <si>
+    <t>Blackjack</t>
+  </si>
+  <si>
+    <t>Silver Dollar</t>
+  </si>
+  <si>
     <t>Lucky You</t>
   </si>
   <si>
-    <t>Silver Dollar</t>
+    <t>Lucky 7's</t>
   </si>
   <si>
     <t>5X the Cash</t>
   </si>
   <si>
+    <t>$10,000 Taxes Paid</t>
+  </si>
+  <si>
+    <t>Cash on the Spot</t>
+  </si>
+  <si>
+    <t>Lucky Corners</t>
+  </si>
+  <si>
+    <t>Fat Stacks</t>
+  </si>
+  <si>
+    <t>Quick 7'$</t>
+  </si>
+  <si>
     <t>5X The Cash</t>
   </si>
   <si>
-    <t>Lucky 7's</t>
-  </si>
-  <si>
-    <t>$10,000 Taxes Paid</t>
-  </si>
-  <si>
-    <t>Cash on the Spot</t>
-  </si>
-  <si>
-    <t>Lucky Corners</t>
-  </si>
-  <si>
-    <t>Fat Stacks</t>
-  </si>
-  <si>
-    <t>Quick 7'$</t>
-  </si>
-  <si>
     <t>Happy Holidays</t>
   </si>
   <si>
@@ -92,123 +95,132 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>$50,000 Back Scratch</t>
+  </si>
+  <si>
     <t>HIT $100</t>
   </si>
   <si>
     <t>$25,000 Dream Makeover</t>
   </si>
   <si>
-    <t>$50,000 Back Scratch</t>
+    <t>10X the Cash</t>
   </si>
   <si>
     <t>Wild Cherry Doubler</t>
   </si>
   <si>
-    <t>10X the Cash</t>
+    <t>24K</t>
+  </si>
+  <si>
+    <t>Quick Cash</t>
+  </si>
+  <si>
+    <t>Cash Bam Boom</t>
+  </si>
+  <si>
+    <t>Junior Big Ol' Bucks</t>
+  </si>
+  <si>
+    <t>10X The Cash</t>
   </si>
   <si>
     <t>Lady Luck Doubler</t>
   </si>
   <si>
-    <t>Cash Bam Boom</t>
-  </si>
-  <si>
-    <t>Quick Cash</t>
-  </si>
-  <si>
-    <t>Junior Big Ol' Bucks</t>
-  </si>
-  <si>
-    <t>10X The Cash</t>
-  </si>
-  <si>
     <t>Double Match</t>
   </si>
   <si>
+    <t>'Tis the Season</t>
+  </si>
+  <si>
     <t>Neon 7's</t>
   </si>
   <si>
     <t>Did I Win?</t>
   </si>
   <si>
-    <t>'Tis the Season</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
     <t>HIT $300 Crossword</t>
   </si>
   <si>
+    <t>Money Ball Bingo</t>
+  </si>
+  <si>
+    <t>15X Crossword</t>
+  </si>
+  <si>
+    <t>Treasure Hunt</t>
+  </si>
+  <si>
+    <t>LOTERIA™</t>
+  </si>
+  <si>
+    <t>Block-O Bingo</t>
+  </si>
+  <si>
     <t>Holiday Cheer</t>
   </si>
   <si>
-    <t>Treasure Hunt</t>
-  </si>
-  <si>
-    <t>Money Ball Bingo</t>
-  </si>
-  <si>
-    <t>15X Crossword</t>
-  </si>
-  <si>
-    <t>LOTERIA™</t>
-  </si>
-  <si>
     <t>Double Lucky 7s Crossword</t>
   </si>
   <si>
-    <t>Block-O Bingo</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
     <t>Cash Vault</t>
   </si>
   <si>
+    <t>$200,000 Pay Day</t>
+  </si>
+  <si>
+    <t>HIT $500</t>
+  </si>
+  <si>
+    <t>Spicy Hot Crossword</t>
+  </si>
+  <si>
+    <t>$200,000 Back Scratch</t>
+  </si>
+  <si>
+    <t>Queen of Hearts</t>
+  </si>
+  <si>
+    <t>20X The Cash</t>
+  </si>
+  <si>
+    <t>Bonus Crossword Cash</t>
+  </si>
+  <si>
+    <t>Lots of $10,000!</t>
+  </si>
+  <si>
+    <t>Mega Bucks</t>
+  </si>
+  <si>
+    <t>Strike It Rich!</t>
+  </si>
+  <si>
+    <t>Carolina Black</t>
+  </si>
+  <si>
+    <t>Lucky 7 Bonus</t>
+  </si>
+  <si>
+    <t>Win It All</t>
+  </si>
+  <si>
+    <t>20X the Cash</t>
+  </si>
+  <si>
+    <t>MONOPOLY™ FRENZY!</t>
+  </si>
+  <si>
     <t>Fantastic 5's</t>
   </si>
   <si>
-    <t>$200,000 Pay Day</t>
-  </si>
-  <si>
-    <t>HIT $500</t>
-  </si>
-  <si>
-    <t>Win It All</t>
-  </si>
-  <si>
-    <t>Spicy Hot Crossword</t>
-  </si>
-  <si>
-    <t>Queen of Hearts</t>
-  </si>
-  <si>
-    <t>20X the Cash</t>
-  </si>
-  <si>
-    <t>MONOPOLY™ FRENZY!</t>
-  </si>
-  <si>
-    <t>$200,000 Back Scratch</t>
-  </si>
-  <si>
-    <t>Mega Bucks</t>
-  </si>
-  <si>
-    <t>20X The Cash</t>
-  </si>
-  <si>
-    <t>Strike It Rich!</t>
-  </si>
-  <si>
-    <t>Lots of $10,000!</t>
-  </si>
-  <si>
-    <t>Carolina Black</t>
-  </si>
-  <si>
     <t>Mega Millions/Powerball</t>
   </si>
   <si>
@@ -230,55 +242,58 @@
     <t>$2,500 Frenzy</t>
   </si>
   <si>
+    <t>$1,000,000 Back Scratch</t>
+  </si>
+  <si>
+    <t>Lucky No. 7</t>
+  </si>
+  <si>
+    <t>Crown Jewels</t>
+  </si>
+  <si>
     <t>Jumbo Bucks</t>
   </si>
   <si>
+    <t>$50 or $100</t>
+  </si>
+  <si>
     <t>HIT $5,000</t>
   </si>
   <si>
-    <t>$1,000,000 Back Scratch</t>
-  </si>
-  <si>
-    <t>Lucky No. 7</t>
-  </si>
-  <si>
-    <t>Crown Jewels</t>
-  </si>
-  <si>
     <t>50X the Cash</t>
   </si>
   <si>
-    <t>$50 or $100</t>
-  </si>
-  <si>
     <t>$1,000,000 Taxes Paid</t>
   </si>
   <si>
     <t>$20.00 Games</t>
   </si>
   <si>
+    <t>$4,000,000 Platinum Payout</t>
+  </si>
+  <si>
+    <t>$5,000,000 Mega Cash</t>
+  </si>
+  <si>
+    <t>100X The Cash</t>
+  </si>
+  <si>
+    <t>$4,000,000 Diamond Dazzler</t>
+  </si>
+  <si>
+    <t>$150 Million Cash Explosion</t>
+  </si>
+  <si>
     <t>Big Money Playbook</t>
   </si>
   <si>
-    <t>$4,000,000 Platinum Payout</t>
-  </si>
-  <si>
-    <t>$5,000,000 Mega Cash</t>
-  </si>
-  <si>
-    <t>100X The Cash</t>
-  </si>
-  <si>
-    <t>$4,000,000 Diamond Dazzler</t>
-  </si>
-  <si>
     <t>100X the Cash</t>
   </si>
   <si>
-    <t>$150 Million Cash Explosion</t>
-  </si>
-  <si>
     <t>$30.00 Games</t>
+  </si>
+  <si>
+    <t>$300,000,000 Supreme Riches</t>
   </si>
   <si>
     <t>$10,000,000 Colossal Cash</t>
@@ -623,7 +638,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,10 +737,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -745,7 +760,7 @@
         <v>646</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -762,10 +777,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -782,10 +797,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -798,14 +813,14 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="C9">
+        <v>2019</v>
       </c>
       <c r="D9">
-        <v>540</v>
+        <v>641</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -819,13 +834,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>544</v>
+        <v>651</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -839,13 +854,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>608</v>
+        <v>544</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -858,14 +873,14 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>2019</v>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -942,10 +957,10 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>636</v>
+        <v>591</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -962,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -976,16 +991,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
       <c r="D18">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -996,16 +1011,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1016,16 +1031,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1036,16 +1051,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
       <c r="D21">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1056,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1076,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23">
-        <v>657</v>
+        <v>609</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1096,16 +1111,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24">
-        <v>614</v>
+        <v>661</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1116,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1136,16 +1151,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1156,16 +1171,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1176,13 +1191,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
       <c r="D28">
-        <v>633</v>
+        <v>592</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1196,16 +1211,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
       <c r="D29">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1216,16 +1231,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1236,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1256,16 +1271,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
       <c r="D32">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1276,16 +1291,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1296,16 +1311,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
       </c>
       <c r="D34">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1316,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
@@ -1336,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
@@ -1345,7 +1360,7 @@
         <v>653</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1356,16 +1371,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>45</v>
       </c>
       <c r="D37">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1376,16 +1391,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
       </c>
       <c r="D38">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1396,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -1416,16 +1431,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
         <v>48</v>
       </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
       <c r="D40">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1436,16 +1451,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1456,13 +1471,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
       </c>
       <c r="D42">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1476,13 +1491,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
       </c>
       <c r="D43">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1496,16 +1511,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
       </c>
       <c r="D44">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1516,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
@@ -1536,16 +1551,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
       </c>
       <c r="D46">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1556,16 +1571,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
       </c>
       <c r="D47">
-        <v>654</v>
+        <v>575</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1576,16 +1591,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
       </c>
       <c r="D48">
-        <v>649</v>
+        <v>593</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1596,16 +1611,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>58</v>
       </c>
       <c r="D49">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1616,16 +1631,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
       </c>
       <c r="D50">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1636,16 +1651,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
       </c>
       <c r="D51">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1656,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>61</v>
@@ -1676,16 +1691,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>62</v>
       </c>
       <c r="D53">
-        <v>617</v>
+        <v>658</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1696,16 +1711,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
       </c>
       <c r="D54">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1716,16 +1731,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55">
-        <v>777</v>
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
       </c>
       <c r="D55">
-        <v>706</v>
+        <v>644</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1736,16 +1751,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1756,16 +1771,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D57">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1776,13 +1791,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1796,16 +1811,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>777</v>
       </c>
       <c r="D59">
-        <v>581</v>
+        <v>706</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1816,16 +1831,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1836,16 +1851,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1856,16 +1871,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1876,16 +1891,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>72</v>
       </c>
       <c r="D63">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1896,16 +1911,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
       </c>
       <c r="D64">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1916,16 +1931,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
       </c>
       <c r="D65">
-        <v>607</v>
+        <v>562</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1936,16 +1951,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
         <v>75</v>
       </c>
       <c r="D66">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1956,16 +1971,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>76</v>
       </c>
       <c r="D67">
-        <v>655</v>
+        <v>607</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1976,16 +1991,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
         <v>77</v>
       </c>
       <c r="D68">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="E68">
-        <v>142315</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -1996,16 +2011,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="E69">
-        <v>9224</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2016,16 +2031,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70">
-        <v>547</v>
+        <v>650</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>117186</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2036,13 +2051,13 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
         <v>80</v>
       </c>
       <c r="D71">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2056,16 +2071,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>81</v>
       </c>
       <c r="D72">
-        <v>519</v>
+        <v>655</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2076,16 +2091,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
         <v>79</v>
       </c>
-      <c r="C73" t="s">
-        <v>82</v>
-      </c>
       <c r="D73">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>9217</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2096,13 +2111,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74">
-        <v>594</v>
+        <v>547</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2116,13 +2131,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
         <v>84</v>
       </c>
       <c r="D75">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2136,16 +2151,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>85</v>
       </c>
       <c r="D76">
-        <v>659</v>
+        <v>551</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2156,16 +2171,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
       </c>
       <c r="D77">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2176,16 +2191,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
       <c r="D78">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2196,18 +2211,118 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79">
+        <v>635</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
         <v>89</v>
       </c>
-      <c r="D79">
+      <c r="D80">
+        <v>645</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81">
+        <v>659</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82">
+        <v>675</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83">
+        <v>587</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84">
         <v>538</v>
       </c>
-      <c r="E79">
+      <c r="E84">
         <v>0</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F84" t="s">
         <v>9</v>
       </c>
     </row>
